--- a/doc/hotel_sql.xlsx
+++ b/doc/hotel_sql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7880" yWindow="8400" windowWidth="25600" windowHeight="11200" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="17980" yWindow="6180" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
   <si>
     <t>数据类型</t>
   </si>
@@ -328,22 +328,30 @@
       </rPr>
       <t>已完成</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_facility</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间设施描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,7 +410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -412,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -981,7 +989,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -994,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1114,8 +1122,22 @@
         <v>58</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1130,7 +1152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1301,7 +1323,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1396,7 +1418,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1540,7 +1562,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1627,7 +1649,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/doc/hotel_sql.xlsx
+++ b/doc/hotel_sql.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17980" yWindow="6180" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="15800" yWindow="5020" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
     <sheet name="房间表" sheetId="2" r:id="rId2"/>
-    <sheet name="订房表" sheetId="3" r:id="rId3"/>
+    <sheet name="订单表" sheetId="3" r:id="rId3"/>
     <sheet name="留言表" sheetId="4" r:id="rId4"/>
     <sheet name="评论表" sheetId="5" r:id="rId5"/>
     <sheet name="房间住户表" sheetId="6" r:id="rId6"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
   <si>
     <t>数据类型</t>
   </si>
@@ -83,9 +83,6 @@
     <t>性别</t>
   </si>
   <si>
-    <t>0男 1女</t>
-  </si>
-  <si>
     <t>user_years</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>user_password</t>
   </si>
   <si>
-    <t>密码md5值</t>
-  </si>
-  <si>
     <t>user_point</t>
   </si>
   <si>
@@ -158,12 +152,6 @@
     <t>安全答案</t>
   </si>
   <si>
-    <t>room_floor</t>
-  </si>
-  <si>
-    <t>楼层</t>
-  </si>
-  <si>
     <t>room_num</t>
   </si>
   <si>
@@ -218,12 +206,6 @@
     <t>结束时间</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>支付状态</t>
-  </si>
-  <si>
     <t>indent_id</t>
   </si>
   <si>
@@ -254,9 +236,6 @@
     <t>订单类型</t>
   </si>
   <si>
-    <t>0房租 1早餐 2按摩</t>
-  </si>
-  <si>
     <t>msg_time</t>
   </si>
   <si>
@@ -314,8 +293,42 @@
     <t>订房id</t>
   </si>
   <si>
+    <t>text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_facility</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间设施描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>0未支付 1已支付 2已取消 3生效中 4</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">男 </t>
     </r>
     <r>
       <rPr>
@@ -326,32 +339,120 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>已完成</t>
+      <t>2</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>room_facility</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大300</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房间设施描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_img</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像图片索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1未支付 2已支付 3已完成 4已取消 5已过期</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">房租 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">早餐 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按摩</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -382,6 +483,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -406,13 +525,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -420,10 +545,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
   </cellStyles>
@@ -754,19 +896,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,210 +929,238 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="6"/>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="6">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
         <v>40</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1002,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1040,13 +1211,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1054,90 +1225,76 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
         <v>46</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5" t="s">
         <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5">
-        <v>3.2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>54</v>
-      </c>
-      <c r="C6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1150,10 +1307,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1184,24 +1341,24 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1209,13 +1366,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1223,41 +1380,47 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="F6" s="9">
+        <v>42377.845833333333</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1265,65 +1428,48 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C10">
-        <v>4.0999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1380,13 +1526,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1394,13 +1540,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1408,17 +1554,17 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1434,7 +1580,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1479,13 +1625,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1493,13 +1639,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1507,13 +1653,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1521,13 +1667,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1535,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1552,17 +1698,17 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1611,13 +1757,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1639,17 +1785,17 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/doc/hotel_sql.xlsx
+++ b/doc/hotel_sql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="5020" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5320" yWindow="1560" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
   <si>
     <t>数据类型</t>
   </si>
@@ -65,18 +65,12 @@
     <t>最大20</t>
   </si>
   <si>
-    <t>昵称</t>
-  </si>
-  <si>
     <t>user_type</t>
   </si>
   <si>
     <t>用户类型</t>
   </si>
   <si>
-    <t>0用户 1 管理员</t>
-  </si>
-  <si>
     <t>user_gender</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
     <t>user_email</t>
   </si>
   <si>
-    <t>最大30</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>类型</t>
   </si>
   <si>
-    <t>1:单人间 2: 双人间 3:三人间</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
@@ -179,16 +164,10 @@
     <t>room_cost</t>
   </si>
   <si>
-    <t>费用(每小时)</t>
-  </si>
-  <si>
     <t>room_img</t>
   </si>
   <si>
     <t>最大100</t>
-  </si>
-  <si>
-    <t>房间图片url</t>
   </si>
   <si>
     <t>date</t>
@@ -325,6 +304,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -346,6 +326,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -367,10 +348,6 @@
   </si>
   <si>
     <t>头像图片索引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1未支付 2已支付 3已完成 4已取消 5已过期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -390,6 +367,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,6 +389,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -432,11 +411,205 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>按摩</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用户 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>管理员</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用(元/天)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_img1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_img2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>room_img3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间图片url 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间图片url 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间图片url 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间图片url 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:单人间 2: 标准间 3:商务间 4:行政间 5：套间 6：双套间 7：组合套间 8：多套间 9：高级套间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yy-mm-dd hh:mm:ss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_img</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户头像图片索引</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1未支付 2已支付 3已完成 4已取消 5已过期 6已入住</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>订房用户id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>name1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户姓名1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户身份证号1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户姓名2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户身份证号2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户姓名3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户身份证号3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户姓名4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户身份证号4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户姓名5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他住户身份证号5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>indent_sum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~6</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +698,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,8 +709,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,9 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,9 +769,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="16">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
   </cellStyles>
@@ -899,7 +1117,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:F13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -937,7 +1155,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -955,10 +1173,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -967,16 +1185,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -984,16 +1202,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>93</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1001,13 +1219,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -1016,42 +1234,42 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6"/>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6">
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -1060,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -1075,13 +1293,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="6">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -1090,28 +1308,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="6">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1120,13 +1338,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -1135,28 +1353,28 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C16" s="6">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1173,17 +1391,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" customWidth="1"/>
+    <col min="6" max="6" width="94.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1203,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1211,58 +1429,58 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>3.2</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1270,27 +1488,69 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1307,16 +1567,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="44.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1341,24 +1602,24 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1366,13 +1627,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1380,7 +1641,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -1389,21 +1650,21 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="9">
-        <v>42377.845833333333</v>
+        <v>56</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1411,16 +1672,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1431,7 +1692,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -1439,33 +1700,190 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>4.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>99</v>
+        <v>128</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1526,13 +1944,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1540,13 +1958,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1554,13 +1972,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1577,16 +1995,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1617,7 +2035,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1625,13 +2043,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1639,13 +2057,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
         <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1653,13 +2071,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1667,13 +2085,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1681,16 +2099,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1698,13 +2116,27 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1723,11 +2155,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1757,13 +2193,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1777,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1785,13 +2221,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/hotel_sql.xlsx
+++ b/doc/hotel_sql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1560" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5520" yWindow="11480" windowWidth="25600" windowHeight="16120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="141">
   <si>
     <t>数据类型</t>
   </si>
@@ -273,351 +273,236 @@
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>room_facility</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最大300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>房间设施描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">男 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>女</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>user_img</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>头像图片索引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">房租 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">早餐 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>按摩</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>昵称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最大40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">用户 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>管理员</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>email</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>最大20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>费用(元/天)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>room_img1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>room_img2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>room_img3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>房间图片url 1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>房间图片url 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>房间图片url 3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>房间图片url 4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1:单人间 2: 标准间 3:商务间 4:行政间 5：套间 6：双套间 7：组合套间 8：多套间 9：高级套间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>yy-mm-dd hh:mm:ss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>user_img</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用户头像图片索引</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1未支付 2已支付 3已完成 4已取消 5已过期 6已入住</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>订房用户id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户姓名1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>id1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户身份证号1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户姓名2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户身份证号2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户姓名3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户身份证号3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户姓名4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户身份证号4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户姓名5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他住户身份证号5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>indent_sum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1~6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>住户姓名1</t>
+  </si>
+  <si>
+    <t>住户身份证号1</t>
+  </si>
+  <si>
+    <t>住户姓名2</t>
+  </si>
+  <si>
+    <t>住户身份证号2</t>
+  </si>
+  <si>
+    <t>住户姓名3</t>
+  </si>
+  <si>
+    <t>住户身份证号3</t>
+  </si>
+  <si>
+    <t>住户姓名4</t>
+  </si>
+  <si>
+    <t>住户身份证号4</t>
+  </si>
+  <si>
+    <t>住户姓名5</t>
+  </si>
+  <si>
+    <t>住户身份证号5</t>
+  </si>
+  <si>
+    <t>name2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1用户 2管理员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1男 2女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1房租 2早餐 3按摩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -631,21 +516,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -674,8 +544,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,8 +567,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -697,56 +581,247 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,22 +829,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="16" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="16" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="16" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="16" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="16" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="16"/>
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="1" xfId="16" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="25">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -777,6 +880,10 @@
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -784,8 +891,13 @@
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="1"/>
+    <cellStyle name="输出" xfId="16" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1117,268 +1229,284 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="16">
+        <v>6</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8">
         <v>18</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="6">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="B16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>90</v>
-      </c>
+      <c r="F16" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1393,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1421,140 +1549,157 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F3" t="s">
-        <v>106</v>
+      <c r="F3" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>3.2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1569,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1601,293 +1746,331 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>108</v>
+      <c r="F6" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C12" s="4">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="4">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C14" s="4">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="C15" s="4">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12">
+      <c r="C16" s="4">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="4">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="4">
         <v>20</v>
       </c>
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="4">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="4">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="4">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1903,7 +2086,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1929,60 +2112,69 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>69</v>
       </c>
+      <c r="F5" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -1995,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2028,119 +2220,151 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9">
+      <c r="A9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>111</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="4">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -2155,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2189,49 +2413,52 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>113</v>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/doc/hotel_sql.xlsx
+++ b/doc/hotel_sql.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="11480" windowWidth="25600" windowHeight="16120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14620" yWindow="6680" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -356,10 +356,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1:单人间 2: 标准间 3:商务间 4:行政间 5：套间 6：双套间 7：组合套间 8：多套间 9：高级套间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -495,6 +491,10 @@
   </si>
   <si>
     <t>用户姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:单人间 2: 标准间 3:商务间 4:行政间 5：套间 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1309,7 +1309,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1327,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1522,7 +1522,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1549,7 +1549,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1583,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
@@ -1820,7 +1820,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1838,7 +1838,7 @@
         <v>58</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1875,20 +1875,20 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1906,166 +1906,166 @@
         <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C12" s="4">
         <v>20</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4">
         <v>18</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="4">
         <v>20</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4">
         <v>18</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4">
         <v>20</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="4">
         <v>18</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4">
         <v>20</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="4">
         <v>20</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C21" s="4">
         <v>18</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -2333,33 +2333,33 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C10" s="4">
         <v>20</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:11">
